--- a/Dec.xlsx
+++ b/Dec.xlsx
@@ -287,6 +287,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,15 +329,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,30 +342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -670,15 +670,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -690,10 +690,10 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -705,10 +705,10 @@
       <c r="C3" s="1">
         <v>120</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -720,10 +720,10 @@
       <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -735,10 +735,10 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -750,10 +750,10 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -765,10 +765,10 @@
       <c r="C7" s="1">
         <v>65</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -780,10 +780,10 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -795,10 +795,10 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -810,21 +810,25 @@
       <c r="C10" s="1">
         <v>50</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43778</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>90</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -832,15 +836,15 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="7">
         <f>SUM(B3:C28)</f>
-        <v>567</v>
-      </c>
-      <c r="G12" s="13"/>
+        <v>657</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -848,15 +852,15 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(F12/2)</f>
-        <v>283.5</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>328.5</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -864,10 +868,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -875,17 +879,17 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="7">
         <f>C29-F13</f>
-        <v>-13.5</v>
+        <v>31.5</v>
       </c>
       <c r="G15" s="8" t="str">
         <f>IF(F15&lt;0,"Nazmul Pabe","Nazmul Dibe")</f>
-        <v>Nazmul Pabe</v>
+        <v>Nazmul Dibe</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
@@ -894,17 +898,17 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="7">
         <f>B29-F13</f>
-        <v>13.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>IF(F16&lt;0,"Mahbub Pabe", "Mahbub Dibe")</f>
-        <v>Mahbub Dibe</v>
+        <v>Mahbub Pabe</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -913,10 +917,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -924,10 +928,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -935,10 +939,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -946,10 +950,10 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -957,10 +961,10 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -968,10 +972,10 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -979,10 +983,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -990,10 +994,10 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1001,10 +1005,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1012,10 +1016,10 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1023,10 +1027,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1034,10 +1038,10 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -1047,27 +1051,27 @@
       </c>
       <c r="C29" s="3">
         <f>SUM(C3:C28)</f>
-        <v>270</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
+        <v>360</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="11">
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="E17:E28"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F11"/>
     <mergeCell ref="F17:F28"/>
     <mergeCell ref="G17:G28"/>
     <mergeCell ref="D3:D28"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="G3:G14"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="E17:E28"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="11">

--- a/Dec.xlsx
+++ b/Dec.xlsx
@@ -287,6 +287,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,15 +332,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,30 +342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +656,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,15 +670,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -690,10 +690,10 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -705,10 +705,10 @@
       <c r="C3" s="1">
         <v>120</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -720,10 +720,10 @@
       <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -735,10 +735,10 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -750,10 +750,10 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -765,10 +765,10 @@
       <c r="C7" s="1">
         <v>65</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -780,10 +780,10 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -795,10 +795,10 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -810,10 +810,10 @@
       <c r="C10" s="1">
         <v>50</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -825,42 +825,48 @@
       <c r="C11" s="1">
         <v>90</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43779</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>145</v>
+      </c>
+      <c r="D12" s="24"/>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="7">
         <f>SUM(B3:C28)</f>
-        <v>657</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>852</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43780</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="24"/>
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(F12/2)</f>
-        <v>328.5</v>
-      </c>
-      <c r="G13" s="14"/>
+        <v>426</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -868,10 +874,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -879,13 +885,13 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="7">
         <f>C29-F13</f>
-        <v>31.5</v>
+        <v>129</v>
       </c>
       <c r="G15" s="8" t="str">
         <f>IF(F15&lt;0,"Nazmul Pabe","Nazmul Dibe")</f>
@@ -898,13 +904,13 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="7">
         <f>B29-F13</f>
-        <v>-31.5</v>
+        <v>-129</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>IF(F16&lt;0,"Mahbub Pabe", "Mahbub Dibe")</f>
@@ -917,10 +923,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -928,10 +934,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -939,10 +945,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -950,10 +956,10 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -961,10 +967,10 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -972,10 +978,10 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -983,10 +989,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -994,10 +1000,10 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1005,10 +1011,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1016,10 +1022,10 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1027,10 +1033,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1038,10 +1044,10 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="15"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -1051,27 +1057,27 @@
       </c>
       <c r="C29" s="3">
         <f>SUM(C3:C28)</f>
-        <v>360</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+        <v>555</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="11">
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="G3:G14"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="E17:E28"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F11"/>
     <mergeCell ref="F17:F28"/>
     <mergeCell ref="G17:G28"/>
     <mergeCell ref="D3:D28"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="E17:E28"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="11">

--- a/Dec.xlsx
+++ b/Dec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Nazmul</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>naz</t>
+  </si>
+  <si>
+    <t>mah</t>
   </si>
 </sst>
 </file>
@@ -655,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +852,7 @@
       </c>
       <c r="F12" s="7">
         <f>SUM(B3:C28)</f>
-        <v>852</v>
+        <v>887</v>
       </c>
       <c r="G12" s="13"/>
     </row>
@@ -854,7 +860,9 @@
       <c r="A13" s="5">
         <v>43780</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
@@ -864,7 +872,7 @@
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(F12/2)</f>
-        <v>426</v>
+        <v>443.5</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -872,8 +880,12 @@
       <c r="A14" s="5">
         <v>43781</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
       <c r="D14" s="24"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
@@ -891,7 +903,7 @@
       </c>
       <c r="F15" s="7">
         <f>C29-F13</f>
-        <v>129</v>
+        <v>111.5</v>
       </c>
       <c r="G15" s="8" t="str">
         <f>IF(F15&lt;0,"Nazmul Pabe","Nazmul Dibe")</f>
@@ -910,7 +922,7 @@
       </c>
       <c r="F16" s="7">
         <f>B29-F13</f>
-        <v>-129</v>
+        <v>-111.5</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>IF(F16&lt;0,"Mahbub Pabe", "Mahbub Dibe")</f>
@@ -1053,7 +1065,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="3">
         <f>SUM(B3:B28)</f>
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="C29" s="3">
         <f>SUM(C3:C28)</f>
@@ -1169,12 +1181,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>245</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Dec.xlsx
+++ b/Dec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,6 +293,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,15 +335,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,30 +348,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,15 +676,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -696,200 +696,152 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43770</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>120</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43771</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>30</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43772</v>
       </c>
-      <c r="B5" s="1">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43773</v>
       </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43774</v>
       </c>
-      <c r="B7" s="1">
-        <v>80</v>
-      </c>
-      <c r="C7" s="1">
-        <v>65</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43775</v>
       </c>
-      <c r="B8" s="1">
-        <v>92</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43776</v>
       </c>
-      <c r="B9" s="1">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43777</v>
       </c>
-      <c r="B10" s="1">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>50</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43778</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>90</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43779</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>145</v>
-      </c>
-      <c r="D12" s="24"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="7">
         <f>SUM(B3:C28)</f>
-        <v>887</v>
-      </c>
-      <c r="G12" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43780</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>50</v>
-      </c>
-      <c r="D13" s="24"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(F12/2)</f>
-        <v>443.5</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43781</v>
       </c>
-      <c r="B14" s="1">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -897,13 +849,13 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="7">
         <f>C29-F13</f>
-        <v>111.5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8" t="str">
         <f>IF(F15&lt;0,"Nazmul Pabe","Nazmul Dibe")</f>
@@ -916,17 +868,17 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="7">
         <f>B29-F13</f>
-        <v>-111.5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>IF(F16&lt;0,"Mahbub Pabe", "Mahbub Dibe")</f>
-        <v>Mahbub Pabe</v>
+        <v>Mahbub Dibe</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,10 +887,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -946,10 +898,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -957,10 +909,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -968,10 +920,10 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -979,10 +931,10 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -990,10 +942,10 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1001,10 +953,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1012,10 +964,10 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1023,10 +975,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1034,10 +986,10 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1045,10 +997,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1056,40 +1008,40 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3">
         <f>SUM(B3:B28)</f>
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3">
         <f>SUM(C3:C28)</f>
-        <v>555</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="11">
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="E17:E28"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F11"/>
     <mergeCell ref="F17:F28"/>
     <mergeCell ref="G17:G28"/>
     <mergeCell ref="D3:D28"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="G3:G14"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="E17:E28"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="11">
@@ -1183,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
